--- a/topic_split/topic_20.xlsx
+++ b/topic_split/topic_20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>issue</t>
   </si>
@@ -22,34 +22,44 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
+    <t>Fedwide ITT
+# Parent ticket for the development of Fedwide ITT
+## Tasks list (will be updated)
+- [ ] #646
+- [ ] #647
+- [ ] #648</t>
   </si>
   <si>
-    <t>[4.17658305e-308 2.47929003e-308 3.21079479e-308 2.36543176e-308
- 3.33086455e-308 4.73408158e-308 7.85061103e-308 5.32566766e-308
- 4.16261706e-308 1.71042539e-307 6.97633350e-308 4.00194361e-308
- 6.17293248e-308 3.22270470e-308 6.23195199e-308 1.62854951e-307
- 5.89588640e-308 6.32265040e-308 1.88886530e-307 1.00000000e+000
- 4.32071944e-308 1.06294611e-307 5.06084956e-308 2.97959328e-307
- 7.17342285e-308]</t>
+    <t xml:space="preserve">project: Storybook audit
+## Addresses:
+- https://github.com/IFRCGo/go-web-app/issues/1291
+- [GO - Storybook components audit - Jun 27 2024](https://docs.google.com/document/d/1M5pVE7MzvJn5wTBvGaioDZLrnn-QHv2mzhiexRXjG0k/edit)
+## Changes
+Storybook audit major changes
+- Breadcrumbs component
+- Secondary Tab/Navigation tab
+- Button
+- Input Container height
+- Modal Width
+- MultiSelectInput
+## This PR doesn't introduce:
+- [x] typos
+- [x] conflict markers
+- [x] unwanted comments
+- [x] temporary files, auto-generated files or secret keys
+- [x] `console.log` meant for debugging
+- [x] codegen errors
+</t>
   </si>
   <si>
-    <t>[4.15412660e-308 2.38183654e-308 3.28883917e-308 2.27149604e-308
- 3.46757613e-308 4.77924664e-308 7.23195890e-308 5.22850158e-308
- 4.24648558e-308 1.83173376e-307 7.16654153e-308 4.16421460e-308
- 5.97166851e-308 3.06072072e-308 5.86905473e-308 2.19113500e-307
- 5.90362062e-308 5.83539894e-308 2.98095498e-307 1.00000000e+000
- 4.39375948e-308 1.12462534e-307 5.10027472e-308 2.49341724e-307
- 7.62238694e-308]</t>
-  </si>
-  <si>
-    <t>[4.06152422e-308 2.47438871e-308 3.25282316e-308 2.35742957e-308
- 3.33720798e-308 4.66304731e-308 7.74067915e-308 5.27504915e-308
- 4.24308691e-308 1.75637880e-307 7.05474917e-308 4.10365733e-308
- 6.16143682e-308 3.21125790e-308 6.10250399e-308 1.73557958e-307
- 5.72288363e-308 6.14283744e-308 2.02982196e-307 1.00000000e+000
- 4.36701340e-308 1.03390984e-307 5.02504360e-308 2.75466768e-307
- 7.48812906e-308]</t>
+    <t xml:space="preserve">Add sdt url in the tools section under learn menu
+## Summary
+Add link to SDT in the tools section under learn menu.
+## Addresses
+- https://github.com/IFRCGo/sdt-web-app/issues/121
+## Note
+A new environment variable `APP_SDT_URL` has been introduced with this PR
+</t>
   </si>
 </sst>
 </file>
@@ -407,54 +417,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>97</v>
       </c>
       <c r="B3">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>192</v>
       </c>
       <c r="B4">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
